--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_016.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_016.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
-  </si>
-  <si>
-    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295038EA1.15) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(700000AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Under-excitation</t>
-  </si>
-  <si>
-    <t>(295021AK2.08) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295027EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Safety relief valves</t>
-  </si>
-  <si>
-    <t>(295018AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Isolation of non-essential heat loads</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295003AK1.08) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Emergency diesel generator load limits</t>
-  </si>
-  <si>
-    <t>(295026EK2.01) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
-  </si>
-  <si>
-    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295037EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Hot shutdown boron weight</t>
-  </si>
-  <si>
-    <t>(295033EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Area radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295007AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reducing reactor power</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295014AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Void concentration</t>
-  </si>
-  <si>
-    <t>(295013AK2.01) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
-  </si>
-  <si>
-    <t>(217000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(215005A2.06) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels upscale</t>
-  </si>
-  <si>
-    <t>(209001K4.01) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of overpressurization of core spray piping</t>
-  </si>
-  <si>
-    <t>(239002K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Discharge line quencher operation</t>
-  </si>
-  <si>
-    <t>(510000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Temperature control valve position</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+    <t>(295021AK2.04) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(295037EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Recirculation pump trip/runback</t>
+  </si>
+  <si>
+    <t>(295023AA1.05) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel transfer system</t>
+  </si>
+  <si>
+    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295001AA2.10) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Recirculation system/RPV differential temperatures</t>
+  </si>
+  <si>
+    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295018AA1.06) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295030EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) SRV discharge submergence</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295025EK2.12) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(295006AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor water level response</t>
+  </si>
+  <si>
+    <t>(295038EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t>(295031EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Automatic depressurization system actuation</t>
+  </si>
+  <si>
+    <t>(295014AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Preconditioning interim operating management recommendations (PCIOMR)</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(295020AK2.12) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Instrument air/nitrogen</t>
+  </si>
+  <si>
+    <t>(295008AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) RCIC turbine trip</t>
+  </si>
+  <si>
+    <t>(295034EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(211000K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core plate differential pressure</t>
+  </si>
+  <si>
+    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(209001K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) ADS</t>
+  </si>
+  <si>
+    <t>(209002A4.03) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Injection valve</t>
+  </si>
+  <si>
+    <t>(262001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Bus voltage</t>
+  </si>
+  <si>
+    <t>(215005A2.10) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Changes in void concentration</t>
+  </si>
+  <si>
+    <t>(400000K4.03) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Spent fuel pool cooling</t>
+  </si>
+  <si>
+    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(223002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) HPCI</t>
+  </si>
+  <si>
+    <t>(217000K2.01) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(212000K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(215003K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Downscale</t>
+  </si>
+  <si>
+    <t>(259002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Main steam flow input</t>
   </si>
   <si>
     <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
   </si>
   <si>
-    <t>(223002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(203000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Loop selection</t>
-  </si>
-  <si>
-    <t>(263000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(209002K2.01) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(400000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(212000A2.12) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Main turbine stop/control valve closure</t>
-  </si>
-  <si>
-    <t>(261000K4.07) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Elevated release stack</t>
-  </si>
-  <si>
-    <t>(211000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) SLCS pressure/relief valve operation</t>
-  </si>
-  <si>
-    <t>(205000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Heat exchanger cooling flow</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291002K1.23) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Theory and operation of ion chambers, Geiger-Mueller tubes, and scintillation detectors</t>
-  </si>
-  <si>
-    <t>(264000A4.03) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of emergency control between manual and automatic</t>
-  </si>
-  <si>
-    <t>(259002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(262001A3.03) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Load shedding</t>
-  </si>
-  <si>
-    <t>(262002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Motor generator</t>
-  </si>
-  <si>
-    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
-  </si>
-  <si>
-    <t>(217000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(215005A2.12) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Operation of the OPRM-enabled region of the power to flow map</t>
-  </si>
-  <si>
-    <t>(209001K4.11) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Override injection</t>
-  </si>
-  <si>
-    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
-  </si>
-  <si>
-    <t>(202001K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) APRMs</t>
-  </si>
-  <si>
-    <t>(271000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(288000K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Secondary containment temperature</t>
-  </si>
-  <si>
-    <t>(215001A2.07) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Failure to retract during accident conditions (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(239003K4.09) Knowledge of (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Dilution of MSIV leakage</t>
-  </si>
-  <si>
-    <t>(510001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood detection/prevention</t>
-  </si>
-  <si>
-    <t>(268000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(202002A4.02) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Hydraulic power unit (BWR 5, 6) </t>
-  </si>
-  <si>
-    <t>(201005K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+    <t>(215004A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) RPS status</t>
+  </si>
+  <si>
+    <t>(205000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System isolation</t>
+  </si>
+  <si>
+    <t>(264000K4.09) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Standby readiness</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(262002K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291001K1.08) VALVES (CFR: 41.3) Emergency/manual operation of motor-operated valves with motor inoperable</t>
+  </si>
+  <si>
+    <t>(211000K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(218000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) ADS logic operation</t>
+  </si>
+  <si>
+    <t>(209001K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(209002A4.15) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
+  </si>
+  <si>
+    <t>(202001K2.01) (SF1, SF4 RS) RECIRCULATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Recirculation pumps</t>
+  </si>
+  <si>
+    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(201003K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM will have on the following systems or system parameters: (CFR: 41.1-2 / 41.7 / 41.10 / 45.1-6 / 4) Reactor power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(272000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.4) </t>
+  </si>
+  <si>
+    <t>(239003K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.7) Inboard system logic failure</t>
+  </si>
+  <si>
+    <t>(219000A4.04) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valves</t>
+  </si>
+  <si>
+    <t>(202002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
+  </si>
+  <si>
+    <t>(510001A2.04) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) System leakage/rupture</t>
+  </si>
+  <si>
+    <t>(230000K4.03) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Diverting flow from the RPV to the containment during accident conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(226001A3.01) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Valve operation </t>
+  </si>
+  <si>
+    <t>(245000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(292006K1.03) FISSION PRODUCT POISONS (CFR: 41.1) Describe the production of xenon-135</t>
-  </si>
-  <si>
-    <t>(292008K1.07) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (CRITICALITY) Define criticality as related to a reactor startup</t>
-  </si>
-  <si>
-    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
-  </si>
-  <si>
-    <t>(293007K1.12) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define percent reactor power</t>
-  </si>
-  <si>
-    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/traveling screen failure</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(256000A2.16) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High demineralizer differential pressure</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223001A2.10) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High drywell temperature</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292006K1.12) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(292008K1.02) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) List reactivity control mechanisms that exist for plant conditions during the approach to criticality</t>
+  </si>
+  <si>
+    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
+  </si>
+  <si>
+    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
+  </si>
+  <si>
+    <t>(293008K1.06) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Define a natural convection heat transfer</t>
+  </si>
+  <si>
+    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
+  </si>
+  <si>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(262001A2.09) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding voltage limitations</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(400000A2.16) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to alternate decay heat removal system</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(223002A2.09) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadvertent system initiation</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(286000A2.08) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Failure to actuate when required</t>
+  </si>
+  <si>
+    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295014</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>295013</t>
   </si>
   <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>202001</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>286000</t>
   </si>
   <si>
     <t>271000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>223001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1514,7 +1514,7 @@
         <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1565,7 +1565,7 @@
         <v>4.2</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1633,7 +1633,7 @@
         <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1854,7 +1854,7 @@
         <v>3.9</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D77" t="s">
         <v>110</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D79" t="s">
         <v>110</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
         <v>110</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
         <v>110</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="s">
         <v>110</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="s">
         <v>110</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D87" t="s">
         <v>110</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D89" t="s">
         <v>110</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D91" t="s">
         <v>110</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="s">
         <v>110</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
